--- a/out/production/Project2/Task4.xlsx
+++ b/out/production/Project2/Task4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Stuff\Cal Poly Pomona\courses\Fall 2021\CS 2400\Projects\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1284E1D-2533-4CFE-A044-0E61E71DD656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D00DB2-CA12-4890-8FD7-770C16068FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="5904" windowWidth="17280" windowHeight="8964" xr2:uid="{07B2E248-016C-4E8A-A898-CB6AA78AE301}"/>
   </bookViews>
